--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_0_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_0_sine_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.94473194984354, 50.06248984970385]</t>
+          <t>[49.944756189191175, 50.06246561035622]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.93256545375828, 50.01542312485018]</t>
+          <t>[49.93257738792698, 50.015411190681476]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.99041214564424, 50.17222524794401]</t>
+          <t>[49.98731326050781, 50.175324133080444]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.97626476025672, 50.073959934882886]</t>
+          <t>[49.97629183600236, 50.073932859137244]</t>
         </is>
       </c>
       <c r="U3" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_0_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_0_sine_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.944756189191175, 50.06246561035622]</t>
+          <t>[49.9447298131919, 50.0624919863555]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.93257738792698, 50.015411190681476]</t>
+          <t>[49.932565711040986, 50.01542286756747]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.98731326050781, 50.175324133080444]</t>
+          <t>[49.98654528364073, 50.176092109947525]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.97629183600236, 50.073932859137244]</t>
+          <t>[49.97625532424073, 50.07396937089887]</t>
         </is>
       </c>
       <c r="U3" t="n">
